--- a/biology/Zoologie/Epargyreus/Epargyreus.xlsx
+++ b/biology/Zoologie/Epargyreus/Epargyreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epargyreus est un genre américain de lépidoptères de la famille des Hesperiidae et de la sous-famille des Pyrginae.
 </t>
@@ -511,20 +523,22 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Funet[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Funet :
 Epargyreus antaeus (Hewitson, 1867)
 Epargyreus aspina Evans, 1952
 Epargyreus barisses (Hewitson, 1874)
 Epargyreus brodkorbi Freeman, 1969
-Epargyreus clarus (Cramer, [1775])
+Epargyreus clarus (Cramer, )
 Epargyreus clavicornis (Herrich-Schäffer, 1869)
 Epargyreus deleoni Freeman, 1977
 Epargyreus enispe (Hewitson, 1867)
-Epargyreus exadeus (Cramer, [1780])
+Epargyreus exadeus (Cramer, )
 Epargyreus nutra Evans, 1952
-Epargyreus socus (Hübner, [1825])
+Epargyreus socus (Hübner, )
 Epargyreus spanna Evans, 1952
 Epargyreus spina Evans, 1952
 Epargyreus spinosa Evans, 1952
